--- a/data/trans_dic/P12A1_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación  &gt;=60 años</t>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,17 +667,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,17 +687,32 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,32</t>
+          <t>0,0; 19,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,46</t>
+          <t>0,0; 28,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 49,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,76</t>
+          <t>0,0; 11,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,13</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 12,57</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,16%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,79</t>
+          <t>0,0; 12,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,8</t>
+          <t>0,0; 13,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,79</t>
+          <t>0,0; 12,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 8,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,79; 72,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,25; 64,07</t>
+          <t>0,0; 13,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 54,97</t>
+          <t>0,0; 9,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 43,52</t>
+          <t>0,0; 6,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 7,81</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,18</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,58</t>
+          <t>0,0; 9,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,31</t>
+          <t>0,0; 10,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,23</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 54,32</t>
+          <t>0,0; 7,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,03</t>
+          <t>0,81; 7,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 44,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 39,85</t>
+          <t>0,0; 6,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,9</t>
+          <t>0,6; 5,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,03</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 4,72</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 54,87</t>
+          <t>0,0; 7,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,97; 59,58</t>
+          <t>1,22; 11,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 54,66</t>
+          <t>0,0; 9,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 56,03</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,44; 52,24</t>
+          <t>0,97; 9,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,54; 58,35</t>
+          <t>1,92; 11,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 44,95</t>
+          <t>1,03; 10,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,95; 46,52</t>
+          <t>0,93; 9,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,13; 50,35</t>
+          <t>1,1; 6,54</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 8,52</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 7,05</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 5,8</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>77,46%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>70,89%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>59,74%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>66,02%</t>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20,41%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,16; 60,07</t>
+          <t>6,63; 24,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,01; 67,09</t>
+          <t>10,37; 29,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,94; 78,87</t>
+          <t>8,66; 27,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>52,17; 94,64</t>
+          <t>17,51; 41,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,41; 89,31</t>
+          <t>4,21; 24,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,6; 88,88</t>
+          <t>3,69; 21,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,25; 69,7</t>
+          <t>3,54; 20,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,06; 74,68</t>
+          <t>4,85; 23,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,51; 78,92</t>
+          <t>7,51; 20,01</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 23,23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,96; 20,57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13,99; 29,76</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>76,08%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>84,25%</t>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19,76%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>56,42; 100,0</t>
+          <t>4,88; 25,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,73; 93,97</t>
+          <t>5,24; 31,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,6; 100,0</t>
+          <t>5,13; 27,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>66,43; 96,48</t>
+          <t>10,3; 38,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100,0</t>
+          <t>8,89; 34,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,58; 95,39</t>
+          <t>4,64; 25,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,74; 95,32</t>
+          <t>0,0; 11,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,85; 94,97</t>
+          <t>8,78; 35,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,58; 94,54</t>
+          <t>8,34; 26,06</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 23,16</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 16,11</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 29,83</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>51,99%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>57,73%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>46,54%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,76; 51,89</t>
+          <t>3,16; 8,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,64; 46,98</t>
+          <t>4,51; 10,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,12; 49,89</t>
+          <t>3,93; 9,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41,52; 62,6</t>
+          <t>5,82; 12,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,47; 71,52</t>
+          <t>3,45; 8,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,81; 57,76</t>
+          <t>2,13; 5,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,86; 53,51</t>
+          <t>1,67; 4,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,95; 57,95</t>
+          <t>4,35; 10,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,67; 49,6</t>
+          <t>3,9; 7,48</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 7,06</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 6,25</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 10,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7422</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10405</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7422</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14213</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25383</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 41332</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16574</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 30346</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3771; 36630</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3046</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5635</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2739</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3121</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6167</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5635</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7370</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20489</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18841</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13976</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16626</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16022</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21114</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18673</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1917; 21911</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12389</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2611</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2255</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2590</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7419</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10030</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2255</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6926</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15755</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13584</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17144</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13395</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2144; 19473</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15783</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2576; 23470</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11169</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13609</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2042; 19681</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4801</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7836</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4030</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2566</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8345</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9321</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6968</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8626</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13145</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>17158</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10999</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11192</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14544</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1966; 19320</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14404</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13059</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2123; 21056</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3571; 22210</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1781; 17842</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1974; 20526</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4440; 26478</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7681; 29580</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3810; 23176</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4381; 23769</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21471</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24613</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>20552</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>42944</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14492</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9249</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8770</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16601</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>35963</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>33863</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>29322</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>59545</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10430; 38500</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13699; 39050</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10671; 34060</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27085; 63632</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4890; 28153</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3459; 20182</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3280; 19277</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6646; 32882</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>20563; 54758</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21729; 52472</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17176; 44404</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>40801; 86806</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13932</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12481</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11934</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>27158</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>24920</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12618</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>40171</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>38852</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>25099</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>16197</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>67329</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5329; 28367</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4578; 27192</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4625; 24885</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>13847; 51592</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12229; 47917</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4876; 27196</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13215</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>18121; 73307</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20589; 64345</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>13151; 44574</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7394; 32344</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>38113; 101645</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>45860</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>52820</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>49546</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>85663</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>58297</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>31189</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>24631</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>76080</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>104157</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>84009</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>74178</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>161743</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>28197; 73093</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>34497; 78256</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>30986; 74109</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>60498; 126447</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>35668; 89677</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>17942; 48272</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13808; 40939</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>47866; 117079</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>75116; 144183</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>61019; 113295</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>52478; 100853</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>119235; 217467</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>